--- a/celldive/v2.1.0/celldive-v2.1.0.xlsx
+++ b/celldive/v2.1.0/celldive-v2.1.0.xlsx
@@ -28,11 +28,11 @@
   <commentList>
     <comment ref="A1" authorId="1">
       <text>
-        <t>(Required) HuBMAP ID (e.g., HBM765.TRHD.452) of the sample (i.e., block, section
-or suspension) used to perform this assay. For example, for a RNAseq assay, the
-parent would be the suspension, whereas this would be the HuBMAP ID of a section
-for one of the imaging assays. If an assay comes from multiple parent samples
-then this should be a comma separated list.</t>
+        <t>(Required) HuBMAP ID of the sample (i.e., block, section or suspension) used to
+perform this assay. For example, for a RNAseq assay, the parent would be the
+suspension, whereas this would be the HuBMAP ID of a section for one of the
+imaging assays. If an assay comes from multiple parent samples then this should
+be a comma separated list. Example: HBM765.TRHD.452</t>
       </text>
     </comment>
     <comment ref="B1" authorId="1">
@@ -47,11 +47,11 @@
     </comment>
     <comment ref="C1" authorId="1">
       <text>
-        <t>(Required) DOI for the protocols.io page that describes the assay or sample
-procurment and preparation. For example for an imaging assay, the protocol might
-include staining of a section through the creation of an OME-TIFF file. In this
-case the protocol would include any image processing steps required to create
-the OME-TIFF file.</t>
+        <t>DOI for the protocols.io page that describes the assay or sample procurment and
+preparation. For example for an imaging assay, the protocol might include
+staining of a section through the creation of an OME-TIFF file. In this case the
+protocol would include any image processing steps required to create the
+OME-TIFF file. Example: https://dx.doi.org/10.17504/protocols.io.eq2lyno9qvx9/v1</t>
       </text>
     </comment>
     <comment ref="D1" authorId="1">
@@ -66,8 +66,9 @@
     </comment>
     <comment ref="F1" authorId="1">
       <text>
-        <t>(Required) Specifies whether or not a specific molecule(s) is/are targeted for
-detection/measurement by the assay. The CODEX analyte is protein.</t>
+        <t>Specifies whether or not a specific molecule(s) is/are targeted for
+detection/measurement by the assay ("Yes" or "No"). The CODEX analyte is
+protein.</t>
       </text>
     </comment>
     <comment ref="G1" authorId="1">
@@ -172,7 +173,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="226">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -210,6 +211,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000204</t>
   </si>
   <si>
+    <t>scATACseq</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000247</t>
+  </si>
+  <si>
     <t>Auto-fluorescence</t>
   </si>
   <si>
@@ -222,30 +229,30 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000206</t>
   </si>
   <si>
-    <t>snATAC-seq</t>
+    <t>scRNAseq</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000248</t>
+  </si>
+  <si>
+    <t>Xenium</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000219</t>
+  </si>
+  <si>
+    <t>snATACseq</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000183</t>
   </si>
   <si>
-    <t>Xenium</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000219</t>
-  </si>
-  <si>
     <t>Molecular Cartography</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000217</t>
   </si>
   <si>
-    <t>scRNA-seq</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000248</t>
-  </si>
-  <si>
     <t>CosMx</t>
   </si>
   <si>
@@ -288,114 +295,108 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000160</t>
   </si>
   <si>
-    <t>snRNA-seq</t>
+    <t>CyCIF</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000200</t>
+  </si>
+  <si>
+    <t>Light Sheet</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000168</t>
+  </si>
+  <si>
+    <t>NanoDESI</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000203</t>
+  </si>
+  <si>
+    <t>GeoMx</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000216</t>
+  </si>
+  <si>
+    <t>RNAseq (bulk)</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000212</t>
+  </si>
+  <si>
+    <t>MALDI</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000201</t>
+  </si>
+  <si>
+    <t>RNAseq (GeoMx)</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000214</t>
+  </si>
+  <si>
+    <t>Histology</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000197</t>
+  </si>
+  <si>
+    <t>Enhanced Stimulated Raman Spectroscopy (SRS)</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000209</t>
+  </si>
+  <si>
+    <t>ATACseq (bulk)</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000210</t>
+  </si>
+  <si>
+    <t>MERFISH</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000221</t>
+  </si>
+  <si>
+    <t>LC-MS</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000194</t>
+  </si>
+  <si>
+    <t>10X Multiome</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000215</t>
+  </si>
+  <si>
+    <t>PhenoCycler</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000199</t>
+  </si>
+  <si>
+    <t>Second Harmonic Generation (SHG)</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000208</t>
+  </si>
+  <si>
+    <t>Thick section Multiphoton MxIF</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000207</t>
+  </si>
+  <si>
+    <t>snRNAseq</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000184</t>
   </si>
   <si>
-    <t>CyCIF</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000200</t>
-  </si>
-  <si>
-    <t>Light Sheet</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000168</t>
-  </si>
-  <si>
-    <t>NanoDESI</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000203</t>
-  </si>
-  <si>
-    <t>GeoMx</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000216</t>
-  </si>
-  <si>
-    <t>RNAseq (bulk)</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000212</t>
-  </si>
-  <si>
-    <t>MALDI</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000201</t>
-  </si>
-  <si>
-    <t>RNAseq (GeoMx)</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000214</t>
-  </si>
-  <si>
-    <t>Histology</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000197</t>
-  </si>
-  <si>
-    <t>scATAC-seq</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000247</t>
-  </si>
-  <si>
-    <t>Enhanced Stimulated Raman Spectroscopy (SRS)</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000209</t>
-  </si>
-  <si>
-    <t>ATACseq (bulk)</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000210</t>
-  </si>
-  <si>
-    <t>MERFISH</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000221</t>
-  </si>
-  <si>
-    <t>LC-MS</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000194</t>
-  </si>
-  <si>
-    <t>10X Multiome</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000215</t>
-  </si>
-  <si>
-    <t>PhenoCycler</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000199</t>
-  </si>
-  <si>
-    <t>Second Harmonic Generation (SHG)</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000208</t>
-  </si>
-  <si>
-    <t>Thick section Multiphoton MxIF</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000207</t>
-  </si>
-  <si>
     <t>Visium</t>
   </si>
   <si>
@@ -411,6 +412,12 @@
     <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C13201</t>
   </si>
   <si>
+    <t>Nucleic acid and protein</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000273</t>
+  </si>
+  <si>
     <t>Fluorochrome</t>
   </si>
   <si>
@@ -582,18 +589,24 @@
     <t>https://identifiers.org/RRID:SCR_023760</t>
   </si>
   <si>
-    <t>Zeiss Lightsheet 7</t>
+    <t>Axio Observer 7</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023694</t>
+  </si>
+  <si>
+    <t>IN Cell Analyzer 2200</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023616</t>
+  </si>
+  <si>
+    <t>Lightsheet 7</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_024448</t>
   </si>
   <si>
-    <t>IN Cell Analyzer 2200</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023616</t>
-  </si>
-  <si>
     <t>Orbitrap Fusion Lumos Tribrid</t>
   </si>
   <si>
@@ -612,6 +625,18 @@
     <t>https://identifiers.org/RRID:SCR_023615</t>
   </si>
   <si>
+    <t>Axio Observer 5</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023692</t>
+  </si>
+  <si>
+    <t>Axio Observer 3</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023693</t>
+  </si>
+  <si>
     <t>HiSeq 2500</t>
   </si>
   <si>
@@ -654,36 +679,18 @@
     <t>https://identifiers.org/RRID:SCR_023610</t>
   </si>
   <si>
-    <t>Zeiss Axio Observer 5</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023692</t>
-  </si>
-  <si>
     <t>HiSeq 4000</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_016386</t>
   </si>
   <si>
-    <t>Zeiss Axio Observer 7</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023694</t>
-  </si>
-  <si>
     <t>QTRAP 5500</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_020517</t>
   </si>
   <si>
-    <t>Zeiss Axio Observer 3</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023693</t>
-  </si>
-  <si>
     <t>BZ-X800</t>
   </si>
   <si>
@@ -837,7 +844,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2023-10-03T15:12:16-07:00</t>
+    <t>2023-10-06T19:31:06-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -976,57 +983,57 @@
         <v>76</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="2">
       <c r="D2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="T2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -1035,7 +1042,7 @@
       <formula1>'dataset_type'!$A$1:$A$36</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="E2:E1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'analyte_class'!$A$1:$A$10</formula1>
+      <formula1>'analyte_class'!$A$1:$A$11</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="F2:F1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'is_targeted'!$A$1:$A$2</formula1>
@@ -1386,7 +1393,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1470,6 +1477,14 @@
       </c>
       <c r="B10" t="s">
         <v>96</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>97</v>
+      </c>
+      <c r="B11" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -1487,12 +1502,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -1510,114 +1525,114 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B3" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B4" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B6" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B8" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B9" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B10" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B11" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B12" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B13" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B14" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -1635,258 +1650,258 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B3" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B4" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B5" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B6" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B8" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B9" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B10" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B11" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B12" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B13" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B14" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B15" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B16" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B17" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B18" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B19" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B20" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B21" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B22" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B23" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B24" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B25" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B26" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B27" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B28" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B29" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B30" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B31" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B32" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -1904,42 +1919,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B3" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B4" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B5" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -1957,26 +1972,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B3" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -2000,30 +2015,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B1" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>

--- a/celldive/v2.1.0/celldive-v2.1.0.xlsx
+++ b/celldive/v2.1.0/celldive-v2.1.0.xlsx
@@ -130,15 +130,22 @@
     </comment>
     <comment ref="O1" authorId="1">
       <text>
-        <t>(Required) Number of antibodies</t>
+        <t>(Required) This is the location of the antibodies.tsv file relative to the root
+of the top level of the upload directory structure. This path should begin with
+"." and would likely be something like "./extras/antibodies.tsv".</t>
       </text>
     </comment>
     <comment ref="P1" authorId="1">
       <text>
+        <t>(Required) Number of antibodies</t>
+      </text>
+    </comment>
+    <comment ref="Q1" authorId="1">
+      <text>
         <t>(Required) Number of fluorescent channels imaged during each cycle.</t>
       </text>
     </comment>
-    <comment ref="Q1" authorId="1">
+    <comment ref="R1" authorId="1">
       <text>
         <t>(Required) Number of imaging rounds to capture the tagged biomarkers. For CODEX
 a biomarker imaging round consists of 1. oligo application, 2. fluor
@@ -147,13 +154,13 @@
 inactivation.</t>
       </text>
     </comment>
-    <comment ref="R1" authorId="1">
+    <comment ref="S1" authorId="1">
       <text>
         <t>(Required) The total number of acquisitions performed on microscope to collect
 autofluorescence/background or stained signal (e.g., histology).</t>
       </text>
     </comment>
-    <comment ref="S1" authorId="1">
+    <comment ref="T1" authorId="1">
       <text>
         <t>(Required) A unique ID denoting the slide used. This allows users the ability to
 determine which tissue sections were processed together on the same slide. It is
@@ -161,7 +168,7 @@
 values overlapping across centers.</t>
       </text>
     </comment>
-    <comment ref="T1" authorId="1">
+    <comment ref="U1" authorId="1">
       <text>
         <t>(Required) The string that serves as the definitive identifier for the metadata
 schema version and is readily interpretable by computers for data validation and
@@ -173,7 +180,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="235">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -595,12 +602,24 @@
     <t>https://identifiers.org/RRID:SCR_023694</t>
   </si>
   <si>
+    <t>NovaSeq X</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024569</t>
+  </si>
+  <si>
     <t>IN Cell Analyzer 2200</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_023616</t>
   </si>
   <si>
+    <t>NanoZoomer 2.0-HT</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_021658</t>
+  </si>
+  <si>
     <t>Lightsheet 7</t>
   </si>
   <si>
@@ -733,6 +752,18 @@
     <t>https://identifiers.org/RRID:SCR_023195</t>
   </si>
   <si>
+    <t>NovaSeq X Plus</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024568</t>
+  </si>
+  <si>
+    <t>NanoZoomer-SQ</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023763</t>
+  </si>
+  <si>
     <t>NextSeq 550</t>
   </si>
   <si>
@@ -811,6 +842,9 @@
     <t>data_path</t>
   </si>
   <si>
+    <t>antibodies_path</t>
+  </si>
+  <si>
     <t>number_of_antibodies</t>
   </si>
   <si>
@@ -844,7 +878,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2023-10-06T19:31:06-07:00</t>
+    <t>2023-10-16T20:48:49-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -903,7 +937,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyAlignment="true" applyFill="true">
       <alignment horizontal="center"/>
@@ -919,6 +953,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -938,7 +973,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -958,12 +993,13 @@
     <col min="12" max="12" style="13" width="46.48828125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" style="14" width="16.90625" customWidth="true" bestFit="true"/>
     <col min="14" max="14" style="15" width="9.81640625" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" style="16" width="20.875" customWidth="true" bestFit="true"/>
-    <col min="16" max="16" style="17" width="19.44140625" customWidth="true" bestFit="true"/>
-    <col min="17" max="17" style="18" width="36.0" customWidth="true" bestFit="true"/>
-    <col min="18" max="18" style="19" width="30.91015625" customWidth="true" bestFit="true"/>
-    <col min="19" max="19" style="20" width="7.8125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" style="21" width="19.61328125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" style="16" width="15.234375" customWidth="true" bestFit="true"/>
+    <col min="16" max="16" style="17" width="20.875" customWidth="true" bestFit="true"/>
+    <col min="17" max="17" style="18" width="19.44140625" customWidth="true" bestFit="true"/>
+    <col min="18" max="18" style="19" width="36.0" customWidth="true" bestFit="true"/>
+    <col min="19" max="19" style="20" width="30.91015625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" style="21" width="7.8125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" style="22" width="19.61328125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -992,48 +1028,51 @@
         <v>131</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>217</v>
+        <v>225</v>
+      </c>
+      <c r="U1" t="s" s="1">
+        <v>226</v>
       </c>
     </row>
     <row r="2">
       <c r="D2" t="s">
         <v>36</v>
       </c>
-      <c r="T2" t="s">
-        <v>218</v>
+      <c r="U2" t="s">
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -1051,7 +1090,7 @@
       <formula1>'acquisition_instrument_vendor'!$A$1:$A$14</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="H2:H1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_model'!$A$1:$A$32</formula1>
+      <formula1>'acquisition_instrument_model'!$A$1:$A$36</formula1>
     </dataValidation>
     <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="I2:I1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 0" showErrorMessage="true">
       <formula1>0</formula1>
@@ -1067,10 +1106,6 @@
     <dataValidation type="list" sqref="L2:L1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'time_since_acquisition_instrument_calibration_unit'!$A$1:$A$3</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" sqref="O2:O1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 0" showErrorMessage="true">
-      <formula1>0</formula1>
-      <formula2/>
-    </dataValidation>
     <dataValidation type="whole" operator="greaterThanOrEqual" sqref="P2:P1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 0" showErrorMessage="true">
       <formula1>0</formula1>
       <formula2/>
@@ -1080,6 +1115,10 @@
       <formula2/>
     </dataValidation>
     <dataValidation type="whole" operator="greaterThanOrEqual" sqref="R2:R1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 0" showErrorMessage="true">
+      <formula1>0</formula1>
+      <formula2/>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThanOrEqual" sqref="S2:S1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 0" showErrorMessage="true">
       <formula1>0</formula1>
       <formula2/>
     </dataValidation>
@@ -1642,7 +1681,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1902,6 +1941,38 @@
       </c>
       <c r="B32" t="s">
         <v>195</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>196</v>
+      </c>
+      <c r="B33" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>198</v>
+      </c>
+      <c r="B34" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>200</v>
+      </c>
+      <c r="B35" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>202</v>
+      </c>
+      <c r="B36" t="s">
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -1919,42 +1990,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="B1" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="B2" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="B3" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="B4" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="B5" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -1972,26 +2043,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="B1" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="B2" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="B3" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -2015,16 +2086,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="B1" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="C1" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="D1" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
     </row>
     <row r="2">
@@ -2032,13 +2103,13 @@
         <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="C2" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="D2" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>

--- a/celldive/v2.1.0/celldive-v2.1.0.xlsx
+++ b/celldive/v2.1.0/celldive-v2.1.0.xlsx
@@ -28,11 +28,12 @@
   <commentList>
     <comment ref="A1" authorId="1">
       <text>
-        <t>(Required) HuBMAP ID of the sample (i.e., block, section or suspension) used to
-perform this assay. For example, for a RNAseq assay, the parent would be the
-suspension, whereas this would be the HuBMAP ID of a section for one of the
-imaging assays. If an assay comes from multiple parent samples then this should
-be a comma separated list. Example: HBM765.TRHD.452</t>
+        <t>(Required) Unique HuBMAP or SenNet identifier of the sample (i.e., block,
+section or suspension) used to perform this assay. For example, for a RNAseq
+assay, the parent would be the suspension, whereas, for one of the imaging
+assays, the parent would be the tissue section. If an assay comes from multiple
+parent samples then this should be a comma separated list. Example:
+HBM386.ZGKG.235, HBM672.MKPK.442 or SNT232.UBHJ.322, SNT329.ALSK.102</t>
       </text>
     </comment>
     <comment ref="B1" authorId="1">
@@ -212,6 +213,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000246</t>
   </si>
   <si>
+    <t>MIBI</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000172</t>
+  </si>
+  <si>
     <t>DESI</t>
   </si>
   <si>
@@ -272,12 +279,6 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000222</t>
   </si>
   <si>
-    <t>Multiplex Ion Beam Imaging</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000172</t>
-  </si>
-  <si>
     <t>SIMS</t>
   </si>
   <si>
@@ -515,12 +516,6 @@
     <t>https://identifiers.org/RRID:SCR_023607</t>
   </si>
   <si>
-    <t>Bruker Daltonics</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023608</t>
-  </si>
-  <si>
     <t>Standard BioTools (Fluidigm)</t>
   </si>
   <si>
@@ -533,6 +528,12 @@
     <t>https://identifiers.org/RRID:SCR_023651</t>
   </si>
   <si>
+    <t>Bruker</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_017365</t>
+  </si>
+  <si>
     <t>Keyence</t>
   </si>
   <si>
@@ -878,7 +879,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2023-10-16T20:48:49-07:00</t>
+    <t>2023-10-27T18:06:07-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>

--- a/celldive/v2.1.0/celldive-v2.1.0.xlsx
+++ b/celldive/v2.1.0/celldive-v2.1.0.xlsx
@@ -181,7 +181,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="237">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -207,12 +207,6 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000264</t>
   </si>
   <si>
-    <t>nanoPOTS</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000246</t>
-  </si>
-  <si>
     <t>MIBI</t>
   </si>
   <si>
@@ -315,12 +309,6 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000168</t>
   </si>
   <si>
-    <t>NanoDESI</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000203</t>
-  </si>
-  <si>
     <t>GeoMx</t>
   </si>
   <si>
@@ -339,6 +327,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000201</t>
   </si>
   <si>
+    <t>2D Imaging Mass Cytometry</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000296</t>
+  </si>
+  <si>
     <t>RNAseq (GeoMx)</t>
   </si>
   <si>
@@ -585,6 +579,12 @@
     <t>https://identifiers.org/RRID:SCR_023611</t>
   </si>
   <si>
+    <t>STELLARIS 5</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024663</t>
+  </si>
+  <si>
     <t>BZ-X710</t>
   </si>
   <si>
@@ -639,6 +639,12 @@
     <t>https://identifiers.org/RRID:SCR_024449</t>
   </si>
   <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C17998</t>
+  </si>
+  <si>
     <t>MALDI timsTOF Flex Prototype</t>
   </si>
   <si>
@@ -879,7 +885,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2023-10-27T18:06:07-07:00</t>
+    <t>2023-11-02T15:43:55-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1017,69 +1023,69 @@
         <v>3</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="2">
       <c r="D2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="U2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="13">
     <dataValidation type="list" sqref="D2:D1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'dataset_type'!$A$1:$A$36</formula1>
+      <formula1>'dataset_type'!$A$1:$A$35</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="E2:E1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'analyte_class'!$A$1:$A$11</formula1>
@@ -1091,7 +1097,7 @@
       <formula1>'acquisition_instrument_vendor'!$A$1:$A$14</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="H2:H1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_model'!$A$1:$A$36</formula1>
+      <formula1>'acquisition_instrument_model'!$A$1:$A$38</formula1>
     </dataValidation>
     <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="I2:I1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 0" showErrorMessage="true">
       <formula1>0</formula1>
@@ -1132,7 +1138,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:B35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1416,14 +1422,6 @@
       </c>
       <c r="B35" t="s">
         <v>73</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s">
-        <v>74</v>
-      </c>
-      <c r="B36" t="s">
-        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1441,90 +1439,90 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B11" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1542,12 +1540,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1565,114 +1563,114 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B9" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B10" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B11" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B12" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B13" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B14" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -1682,7 +1680,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1690,290 +1688,306 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B6" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B9" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B10" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B11" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B12" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B14" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B15" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B16" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B17" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B18" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B19" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B20" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B21" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B22" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B23" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B24" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B25" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B26" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B27" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B28" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B29" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B30" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B31" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B32" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B33" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B34" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B35" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
+        <v>200</v>
+      </c>
+      <c r="B36" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
         <v>202</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B37" t="s">
         <v>203</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>204</v>
+      </c>
+      <c r="B38" t="s">
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -1991,42 +2005,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B1" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B2" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B3" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B4" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B5" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -2044,26 +2058,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B1" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B3" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -2087,30 +2101,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B1" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C1" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D1" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D2" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
   </sheetData>

--- a/celldive/v2.1.0/celldive-v2.1.0.xlsx
+++ b/celldive/v2.1.0/celldive-v2.1.0.xlsx
@@ -885,7 +885,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2023-11-02T15:43:55-07:00</t>
+    <t>2023-11-07T20:04:10-08:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>

--- a/celldive/v2.1.0/celldive-v2.1.0.xlsx
+++ b/celldive/v2.1.0/celldive-v2.1.0.xlsx
@@ -181,7 +181,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="233">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -213,18 +213,18 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000172</t>
   </si>
   <si>
+    <t>Visium (no probes)</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000302</t>
+  </si>
+  <si>
     <t>DESI</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000204</t>
   </si>
   <si>
-    <t>scATACseq</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000247</t>
-  </si>
-  <si>
     <t>Auto-fluorescence</t>
   </si>
   <si>
@@ -237,22 +237,16 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000206</t>
   </si>
   <si>
-    <t>scRNAseq</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000248</t>
-  </si>
-  <si>
     <t>Xenium</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000219</t>
   </si>
   <si>
-    <t>snATACseq</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000183</t>
+    <t>Visium (with probes)</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000303</t>
   </si>
   <si>
     <t>Molecular Cartography</t>
@@ -279,12 +273,6 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000202</t>
   </si>
   <si>
-    <t>RNAseq (Visium)</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000188</t>
-  </si>
-  <si>
     <t>Cell DIVE</t>
   </si>
   <si>
@@ -297,6 +285,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000160</t>
   </si>
   <si>
+    <t>GeoMx (NGS)</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000300</t>
+  </si>
+  <si>
     <t>CyCIF</t>
   </si>
   <si>
@@ -309,18 +303,6 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000168</t>
   </si>
   <si>
-    <t>GeoMx</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000216</t>
-  </si>
-  <si>
-    <t>RNAseq (bulk)</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000212</t>
-  </si>
-  <si>
     <t>MALDI</t>
   </si>
   <si>
@@ -333,10 +315,10 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000296</t>
   </si>
   <si>
-    <t>RNAseq (GeoMx)</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000214</t>
+    <t>ATACseq</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000309</t>
   </si>
   <si>
     <t>Histology</t>
@@ -351,10 +333,10 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000209</t>
   </si>
   <si>
-    <t>ATACseq (bulk)</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000210</t>
+    <t>RNAseq</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000310</t>
   </si>
   <si>
     <t>MERFISH</t>
@@ -369,12 +351,30 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000194</t>
   </si>
   <si>
+    <t>nanoSPLITS</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000312</t>
+  </si>
+  <si>
     <t>10X Multiome</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000215</t>
   </si>
   <si>
+    <t>GeoMx (nCounter)</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000301</t>
+  </si>
+  <si>
+    <t>RNAseq (with probes)</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000311</t>
+  </si>
+  <si>
     <t>PhenoCycler</t>
   </si>
   <si>
@@ -393,18 +393,6 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000207</t>
   </si>
   <si>
-    <t>snRNAseq</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000184</t>
-  </si>
-  <si>
-    <t>Visium</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000187</t>
-  </si>
-  <si>
     <t>analyte_class</t>
   </si>
   <si>
@@ -885,7 +873,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2023-11-07T20:04:10-08:00</t>
+    <t>2023-11-15T17:12:29-08:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1023,69 +1011,69 @@
         <v>3</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="K1" t="s" s="1">
+        <v>214</v>
+      </c>
+      <c r="L1" t="s" s="1">
+        <v>215</v>
+      </c>
+      <c r="M1" t="s" s="1">
+        <v>216</v>
+      </c>
+      <c r="N1" t="s" s="1">
+        <v>217</v>
+      </c>
+      <c r="O1" t="s" s="1">
         <v>218</v>
       </c>
-      <c r="L1" t="s" s="1">
+      <c r="P1" t="s" s="1">
         <v>219</v>
       </c>
-      <c r="M1" t="s" s="1">
+      <c r="Q1" t="s" s="1">
         <v>220</v>
       </c>
-      <c r="N1" t="s" s="1">
+      <c r="R1" t="s" s="1">
         <v>221</v>
       </c>
-      <c r="O1" t="s" s="1">
+      <c r="S1" t="s" s="1">
         <v>222</v>
       </c>
-      <c r="P1" t="s" s="1">
+      <c r="T1" t="s" s="1">
         <v>223</v>
       </c>
-      <c r="Q1" t="s" s="1">
+      <c r="U1" t="s" s="1">
         <v>224</v>
-      </c>
-      <c r="R1" t="s" s="1">
-        <v>225</v>
-      </c>
-      <c r="S1" t="s" s="1">
-        <v>226</v>
-      </c>
-      <c r="T1" t="s" s="1">
-        <v>227</v>
-      </c>
-      <c r="U1" t="s" s="1">
-        <v>228</v>
       </c>
     </row>
     <row r="2">
       <c r="D2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="U2" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="13">
     <dataValidation type="list" sqref="D2:D1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'dataset_type'!$A$1:$A$35</formula1>
+      <formula1>'dataset_type'!$A$1:$A$33</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="E2:E1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'analyte_class'!$A$1:$A$11</formula1>
@@ -1138,7 +1126,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1406,22 +1394,6 @@
       </c>
       <c r="B33" t="s">
         <v>69</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s">
-        <v>70</v>
-      </c>
-      <c r="B34" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s">
-        <v>72</v>
-      </c>
-      <c r="B35" t="s">
-        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1439,90 +1411,90 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B8" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B9" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B10" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B11" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -1540,12 +1512,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1563,114 +1535,114 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B3" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B4" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B5" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B6" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B8" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B9" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B10" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B11" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B12" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B13" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B14" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -1688,306 +1660,306 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B3" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B4" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B5" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B6" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B8" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B9" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B10" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B11" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B12" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B13" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B14" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B15" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B16" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B17" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B18" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B19" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B20" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B21" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B22" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B23" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B24" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B25" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B26" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B27" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B28" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B29" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B30" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B31" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B32" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B33" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B34" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B35" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B36" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B37" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B38" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -2005,42 +1977,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B1" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B2" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B3" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B4" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B5" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -2058,26 +2030,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B1" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B2" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
   </sheetData>
@@ -2101,30 +2073,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C1" t="s">
+        <v>229</v>
+      </c>
+      <c r="D1" t="s">
         <v>231</v>
-      </c>
-      <c r="C1" t="s">
-        <v>233</v>
-      </c>
-      <c r="D1" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
+        <v>228</v>
+      </c>
+      <c r="C2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D2" t="s">
         <v>232</v>
-      </c>
-      <c r="C2" t="s">
-        <v>234</v>
-      </c>
-      <c r="D2" t="s">
-        <v>236</v>
       </c>
     </row>
   </sheetData>

--- a/celldive/v2.1.0/celldive-v2.1.0.xlsx
+++ b/celldive/v2.1.0/celldive-v2.1.0.xlsx
@@ -873,7 +873,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2023-11-15T17:12:29-08:00</t>
+    <t>2023-11-24T09:43:04-08:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
